--- a/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T10:43:20+00:00</t>
+    <t>2023-03-02T11:22:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:22:10+00:00</t>
+    <t>2023-03-02T13:04:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T13:04:14+00:00</t>
+    <t>2023-03-02T14:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T14:30:09+00:00</t>
+    <t>2023-03-02T14:36:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T14:36:04+00:00</t>
+    <t>2023-03-02T14:38:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:00:28+00:00</t>
+    <t>2023-03-06T11:01:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:01:00+00:00</t>
+    <t>2023-03-06T11:01:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:01:23+00:00</t>
+    <t>2023-03-06T11:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:02:53+00:00</t>
+    <t>2023-03-06T15:16:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:16:36+00:00</t>
+    <t>2023-03-17T16:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T16:29:09+00:00</t>
+    <t>2023-04-07T16:20:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-available-time-number-days-of-week</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-number-days-of-week</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T16:20:14+00:00</t>
+    <t>2023-04-11T09:40:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR pour indiquer le numéro du jour dans la semaine.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:40:11+00:00</t>
+    <t>2023-04-12T13:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T13:10:15+00:00</t>
+    <t>2023-04-12T14:18:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:18:07+00:00</t>
+    <t>2023-04-12T14:39:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-available-time-number-days-of-week.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:39:26+00:00</t>
+    <t>2023-04-12T15:25:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
